--- a/Solved Problems/HashMap/HashMap Problems.xlsx
+++ b/Solved Problems/HashMap/HashMap Problems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\HashMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80C71A4-0C35-49FE-88B9-6DF4E07E71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFDB22-909C-4356-8676-33D0FC133701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E3AF20C-B5C2-4C50-BE95-A230371FFE42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>1. Hashmap theory, implementing hashmap</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Revision 1</t>
+  </si>
+  <si>
+    <t>Solved in BC</t>
+  </si>
+  <si>
+    <t>H/W</t>
   </si>
 </sst>
 </file>
@@ -155,12 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +184,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,10 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,204 +534,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ABC5CE-1E2D-4B99-9855-95C8018CFA9E}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" customWidth="1"/>
+    <col min="1" max="1" width="73.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solved Problems/HashMap/HashMap Problems.xlsx
+++ b/Solved Problems/HashMap/HashMap Problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\HashMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFDB22-909C-4356-8676-33D0FC133701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54AA55-FB4B-4E94-9117-CD46C0D07C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E3AF20C-B5C2-4C50-BE95-A230371FFE42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>1. Hashmap theory, implementing hashmap</t>
   </si>
@@ -174,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -220,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ABC5CE-1E2D-4B99-9855-95C8018CFA9E}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +606,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -660,42 +667,52 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>

--- a/Solved Problems/HashMap/HashMap Problems.xlsx
+++ b/Solved Problems/HashMap/HashMap Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\HashMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54AA55-FB4B-4E94-9117-CD46C0D07C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9092D-FD6C-4EE2-BC68-7E62BAFD0CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E3AF20C-B5C2-4C50-BE95-A230371FFE42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>1. Hashmap theory, implementing hashmap</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>H/W</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ABC5CE-1E2D-4B99-9855-95C8018CFA9E}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,28 +718,36 @@
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -789,17 +800,21 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">

--- a/Solved Problems/HashMap/HashMap Problems.xlsx
+++ b/Solved Problems/HashMap/HashMap Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\HashMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9092D-FD6C-4EE2-BC68-7E62BAFD0CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2AD169-E952-48D1-B57E-08F4425C9C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E3AF20C-B5C2-4C50-BE95-A230371FFE42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>1. Hashmap theory, implementing hashmap</t>
   </si>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96ABC5CE-1E2D-4B99-9855-95C8018CFA9E}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,10 +832,12 @@
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
